--- a/HW4/dataset2_q1_excel.xlsx
+++ b/HW4/dataset2_q1_excel.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saadh\Desktop\CS625 - Maaz\CS625-HW4\Files\dataset2_q1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{483212AE-FC26-47B7-9DCB-8F0743986E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D631D60D-29CC-4233-B94D-8D26F814045C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,9 +38,6 @@
     <t>State</t>
   </si>
   <si>
-    <t>Total Deaths</t>
-  </si>
-  <si>
     <t>Diseases of heart</t>
   </si>
   <si>
@@ -221,12 +231,15 @@
   </si>
   <si>
     <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -843,7 +856,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Deaths</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1360,7 +1373,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Total Deaths in Thousands</a:t>
+                  <a:t>Age-Adjusted Rates per 100,000 Population</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2314,11 +2327,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U74" sqref="U74"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2328,54 +2341,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>961.2</v>
@@ -2425,7 +2438,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>952.4</v>
@@ -2475,7 +2488,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4">
         <v>941.3</v>
@@ -2525,7 +2538,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>930.1</v>
@@ -2575,7 +2588,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>920.4</v>
@@ -2625,7 +2638,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>915.2</v>
@@ -2675,7 +2688,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <v>908.3</v>
@@ -2725,7 +2738,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>892.9</v>
@@ -2775,7 +2788,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>888.9</v>
@@ -2825,7 +2838,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>864.6</v>
@@ -2875,7 +2888,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>858.8</v>
@@ -2925,7 +2938,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13">
         <v>848.3</v>
@@ -2975,7 +2988,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>847.6</v>
@@ -3025,7 +3038,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15">
         <v>843.7</v>
@@ -3075,7 +3088,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>843.6</v>
@@ -3125,7 +3138,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>840.8</v>
@@ -3175,7 +3188,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18">
         <v>822.8</v>
@@ -3219,7 +3232,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>813.7</v>
@@ -3269,7 +3282,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>800.8</v>
@@ -3319,7 +3332,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21">
         <v>794.7</v>
@@ -3369,7 +3382,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>793</v>
@@ -3419,7 +3432,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>784</v>
@@ -3469,7 +3482,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24">
         <v>783.9</v>
@@ -3519,7 +3532,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>781.4</v>
@@ -3566,7 +3579,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>781.1</v>
@@ -3616,7 +3629,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27">
         <v>781</v>
@@ -3666,7 +3679,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28">
         <v>775.9</v>
@@ -3713,7 +3726,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29">
         <v>775.5</v>
@@ -3763,7 +3776,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>775</v>
@@ -3810,7 +3823,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31">
         <v>770.5</v>
@@ -3860,7 +3873,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>747.4</v>
@@ -3907,7 +3920,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33">
         <v>747.4</v>
@@ -3957,7 +3970,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34">
         <v>746.6</v>
@@ -4007,7 +4020,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35">
         <v>740.5</v>
@@ -4054,7 +4067,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>736.6</v>
@@ -4104,7 +4117,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>735.3</v>
@@ -4154,7 +4167,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38">
         <v>730.3</v>
@@ -4201,7 +4214,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39">
         <v>726.9</v>
@@ -4245,7 +4258,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>724.9</v>
@@ -4292,7 +4305,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41">
         <v>724.1</v>
@@ -4342,7 +4355,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>722.5</v>
@@ -4392,7 +4405,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43">
         <v>721.7</v>
@@ -4436,7 +4449,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44">
         <v>719.7</v>
@@ -4486,7 +4499,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B45">
         <v>716.8</v>
@@ -4536,7 +4549,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B46">
         <v>714.8</v>
@@ -4586,7 +4599,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B47">
         <v>711.3</v>
@@ -4636,7 +4649,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48">
         <v>706.3</v>
@@ -4686,7 +4699,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>701.2</v>
@@ -4736,7 +4749,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50">
         <v>700.2</v>
@@ -4786,7 +4799,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51">
         <v>672.8</v>
@@ -4836,7 +4849,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B52">
         <v>629.6</v>

--- a/HW4/dataset2_q1_excel.xlsx
+++ b/HW4/dataset2_q1_excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saadh\Desktop\CS625 - Maaz\CS625-HW4\Files\dataset2_q1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saadh\Desktop\CS625 - Maaz\CS625-HW1\fall23-mcw-maazhasnainkhan\HW4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D631D60D-29CC-4233-B94D-8D26F814045C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5580D32E-2784-4C60-9F9E-C3F58CC39890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1373,7 +1373,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Age-Adjusted Rates per 100,000 Population</a:t>
+                  <a:t>Age-Adjusted Death  Rates per 100,000 Population</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2330,8 +2330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="T52" sqref="T52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
